--- a/reports/_GST_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_28_.xlsx
+++ b/reports/_GST_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_28_.xlsx
@@ -1876,10 +1876,10 @@
           <t>2018-15269</t>
         </is>
       </c>
-      <c r="X6" s="0" t="d">
+      <c r="X6" s="4" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
-      <c r="Y6" s="0" t="d">
+      <c r="Y6" s="4" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
       <c r="Z6" s="0" t="inlineStr">

--- a/reports/_GST_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_28_.xlsx
+++ b/reports/_GST_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_28_.xlsx
@@ -1627,7 +1627,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:10</t>
+          <t>Total number of containers:10</t>
         </is>
       </c>
     </row>
